--- a/historicalnbadata.xlsx
+++ b/historicalnbadata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="319">
   <si>
     <t>Player</t>
   </si>
@@ -967,6 +967,21 @@
   <si>
     <t>allStar</t>
   </si>
+  <si>
+    <t>D'Angelo Russell</t>
+  </si>
+  <si>
+    <t>Nikola Vučević</t>
+  </si>
+  <si>
+    <t>Nikola Jokić</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>Ben Simmons</t>
+  </si>
 </sst>
 </file>
 
@@ -1283,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T957"/>
+  <dimension ref="A1:T983"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="U956" sqref="U956"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59712,7 +59727,7 @@
         <v>36</v>
       </c>
       <c r="E943">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F943">
         <v>34.200000000000003</v>
@@ -60625,6 +60640,1618 @@
         <v>1</v>
       </c>
       <c r="T957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>267</v>
+      </c>
+      <c r="B958" t="s">
+        <v>14</v>
+      </c>
+      <c r="C958">
+        <v>78</v>
+      </c>
+      <c r="D958">
+        <v>53</v>
+      </c>
+      <c r="E958">
+        <v>6</v>
+      </c>
+      <c r="F958">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G958">
+        <v>36.1</v>
+      </c>
+      <c r="H958">
+        <v>6.6</v>
+      </c>
+      <c r="I958">
+        <v>7.5</v>
+      </c>
+      <c r="J958">
+        <v>2</v>
+      </c>
+      <c r="K958">
+        <v>0.7</v>
+      </c>
+      <c r="L958">
+        <v>0.442</v>
+      </c>
+      <c r="M958">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="N958">
+        <v>0.879</v>
+      </c>
+      <c r="O958">
+        <v>15.2</v>
+      </c>
+      <c r="P958">
+        <v>0.254</v>
+      </c>
+      <c r="Q958">
+        <v>9.9</v>
+      </c>
+      <c r="R958">
+        <v>11.7</v>
+      </c>
+      <c r="S958">
+        <v>1</v>
+      </c>
+      <c r="T958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>269</v>
+      </c>
+      <c r="B959" t="s">
+        <v>253</v>
+      </c>
+      <c r="C959">
+        <v>77</v>
+      </c>
+      <c r="D959">
+        <v>49</v>
+      </c>
+      <c r="E959">
+        <v>9</v>
+      </c>
+      <c r="F959">
+        <v>36.9</v>
+      </c>
+      <c r="G959">
+        <v>28</v>
+      </c>
+      <c r="H959">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I959">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J959">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K959">
+        <v>0.4</v>
+      </c>
+      <c r="L959">
+        <v>0.438</v>
+      </c>
+      <c r="M959">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="N959">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="O959">
+        <v>11.9</v>
+      </c>
+      <c r="P959">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="Q959">
+        <v>5.3</v>
+      </c>
+      <c r="R959">
+        <v>5.5</v>
+      </c>
+      <c r="S959">
+        <v>1</v>
+      </c>
+      <c r="T959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>295</v>
+      </c>
+      <c r="B960" t="s">
+        <v>28</v>
+      </c>
+      <c r="C960">
+        <v>72</v>
+      </c>
+      <c r="D960">
+        <v>60</v>
+      </c>
+      <c r="E960">
+        <v>1</v>
+      </c>
+      <c r="F960">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G960">
+        <v>27.7</v>
+      </c>
+      <c r="H960">
+        <v>12.5</v>
+      </c>
+      <c r="I960">
+        <v>5.9</v>
+      </c>
+      <c r="J960">
+        <v>1.3</v>
+      </c>
+      <c r="K960">
+        <v>1.5</v>
+      </c>
+      <c r="L960">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="M960">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="N960">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="O960">
+        <v>14.4</v>
+      </c>
+      <c r="P960">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="Q960">
+        <v>7.6</v>
+      </c>
+      <c r="R960">
+        <v>10.8</v>
+      </c>
+      <c r="S960">
+        <v>1</v>
+      </c>
+      <c r="T960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>301</v>
+      </c>
+      <c r="B961" t="s">
+        <v>16</v>
+      </c>
+      <c r="C961">
+        <v>64</v>
+      </c>
+      <c r="D961">
+        <v>51</v>
+      </c>
+      <c r="E961">
+        <v>7</v>
+      </c>
+      <c r="F961">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G961">
+        <v>27.5</v>
+      </c>
+      <c r="H961">
+        <v>13.6</v>
+      </c>
+      <c r="I961">
+        <v>3.7</v>
+      </c>
+      <c r="J961">
+        <v>0.7</v>
+      </c>
+      <c r="K961">
+        <v>1.9</v>
+      </c>
+      <c r="L961">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="M961">
+        <v>0.3</v>
+      </c>
+      <c r="N961">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="O961">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P961">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="Q961">
+        <v>3.3</v>
+      </c>
+      <c r="R961">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S961">
+        <v>1</v>
+      </c>
+      <c r="T961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>219</v>
+      </c>
+      <c r="B962" t="s">
+        <v>32</v>
+      </c>
+      <c r="C962">
+        <v>55</v>
+      </c>
+      <c r="D962">
+        <v>37</v>
+      </c>
+      <c r="E962">
+        <v>20</v>
+      </c>
+      <c r="F962">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G962">
+        <v>27.4</v>
+      </c>
+      <c r="H962">
+        <v>8.5</v>
+      </c>
+      <c r="I962">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J962">
+        <v>1.3</v>
+      </c>
+      <c r="K962">
+        <v>0.6</v>
+      </c>
+      <c r="L962">
+        <v>0.51</v>
+      </c>
+      <c r="M962">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="N962">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="O962">
+        <v>7.2</v>
+      </c>
+      <c r="P962">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="Q962">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R962">
+        <v>8.1</v>
+      </c>
+      <c r="S962">
+        <v>1</v>
+      </c>
+      <c r="T962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>277</v>
+      </c>
+      <c r="B963" t="s">
+        <v>66</v>
+      </c>
+      <c r="C963">
+        <v>69</v>
+      </c>
+      <c r="D963">
+        <v>57</v>
+      </c>
+      <c r="E963">
+        <v>3</v>
+      </c>
+      <c r="F963">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G963">
+        <v>27.3</v>
+      </c>
+      <c r="H963">
+        <v>5.3</v>
+      </c>
+      <c r="I963">
+        <v>5.2</v>
+      </c>
+      <c r="J963">
+        <v>1.3</v>
+      </c>
+      <c r="K963">
+        <v>0.4</v>
+      </c>
+      <c r="L963">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="M963">
+        <v>0.437</v>
+      </c>
+      <c r="N963">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="O963">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P963">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="Q963">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R963">
+        <v>6.3</v>
+      </c>
+      <c r="S963">
+        <v>1</v>
+      </c>
+      <c r="T963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>290</v>
+      </c>
+      <c r="B964" t="s">
+        <v>185</v>
+      </c>
+      <c r="C964">
+        <v>60</v>
+      </c>
+      <c r="D964">
+        <v>58</v>
+      </c>
+      <c r="E964">
+        <v>2</v>
+      </c>
+      <c r="F964">
+        <v>34</v>
+      </c>
+      <c r="G964">
+        <v>26.6</v>
+      </c>
+      <c r="H964">
+        <v>7.3</v>
+      </c>
+      <c r="I964">
+        <v>3.3</v>
+      </c>
+      <c r="J964">
+        <v>1.8</v>
+      </c>
+      <c r="K964">
+        <v>0.4</v>
+      </c>
+      <c r="L964">
+        <v>0.496</v>
+      </c>
+      <c r="M964">
+        <v>0.371</v>
+      </c>
+      <c r="N964">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="O964">
+        <v>9.5</v>
+      </c>
+      <c r="P964">
+        <v>0.224</v>
+      </c>
+      <c r="Q964">
+        <v>3.6</v>
+      </c>
+      <c r="R964">
+        <v>5</v>
+      </c>
+      <c r="S964">
+        <v>1</v>
+      </c>
+      <c r="T964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>252</v>
+      </c>
+      <c r="B965" t="s">
+        <v>66</v>
+      </c>
+      <c r="C965">
+        <v>78</v>
+      </c>
+      <c r="D965">
+        <v>57</v>
+      </c>
+      <c r="E965">
+        <v>3</v>
+      </c>
+      <c r="F965">
+        <v>34.6</v>
+      </c>
+      <c r="G965">
+        <v>26</v>
+      </c>
+      <c r="H965">
+        <v>6.4</v>
+      </c>
+      <c r="I965">
+        <v>5.9</v>
+      </c>
+      <c r="J965">
+        <v>0.7</v>
+      </c>
+      <c r="K965">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L965">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="M965">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="N965">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="O965">
+        <v>11.5</v>
+      </c>
+      <c r="P965">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="Q965">
+        <v>4.3</v>
+      </c>
+      <c r="R965">
+        <v>4.3</v>
+      </c>
+      <c r="S965">
+        <v>1</v>
+      </c>
+      <c r="T965">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="966" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>278</v>
+      </c>
+      <c r="B966" t="s">
+        <v>279</v>
+      </c>
+      <c r="C966">
+        <v>56</v>
+      </c>
+      <c r="D966">
+        <v>33</v>
+      </c>
+      <c r="E966">
+        <v>23</v>
+      </c>
+      <c r="F966">
+        <v>33</v>
+      </c>
+      <c r="G966">
+        <v>25.9</v>
+      </c>
+      <c r="H966">
+        <v>12</v>
+      </c>
+      <c r="I966">
+        <v>3.9</v>
+      </c>
+      <c r="J966">
+        <v>1.6</v>
+      </c>
+      <c r="K966">
+        <v>2.4</v>
+      </c>
+      <c r="L966">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="M966">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="N966">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="O966">
+        <v>9.5</v>
+      </c>
+      <c r="P966">
+        <v>0.247</v>
+      </c>
+      <c r="Q966">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R966">
+        <v>8.5</v>
+      </c>
+      <c r="S966">
+        <v>0</v>
+      </c>
+      <c r="T966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>280</v>
+      </c>
+      <c r="B967" t="s">
+        <v>43</v>
+      </c>
+      <c r="C967">
+        <v>80</v>
+      </c>
+      <c r="D967">
+        <v>53</v>
+      </c>
+      <c r="E967">
+        <v>5</v>
+      </c>
+      <c r="F967">
+        <v>35.5</v>
+      </c>
+      <c r="G967">
+        <v>25.8</v>
+      </c>
+      <c r="H967">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I967">
+        <v>6.9</v>
+      </c>
+      <c r="J967">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K967">
+        <v>0.4</v>
+      </c>
+      <c r="L967">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="M967">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="N967">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="O967">
+        <v>12.1</v>
+      </c>
+      <c r="P967">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Q967">
+        <v>5.4</v>
+      </c>
+      <c r="R967">
+        <v>5.5</v>
+      </c>
+      <c r="S967">
+        <v>1</v>
+      </c>
+      <c r="T967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>299</v>
+      </c>
+      <c r="B968" t="s">
+        <v>180</v>
+      </c>
+      <c r="C968">
+        <v>82</v>
+      </c>
+      <c r="D968">
+        <v>32</v>
+      </c>
+      <c r="E968">
+        <v>25</v>
+      </c>
+      <c r="F968">
+        <v>36.9</v>
+      </c>
+      <c r="G968">
+        <v>25.6</v>
+      </c>
+      <c r="H968">
+        <v>5</v>
+      </c>
+      <c r="I968">
+        <v>5.5</v>
+      </c>
+      <c r="J968">
+        <v>1.5</v>
+      </c>
+      <c r="K968">
+        <v>0.7</v>
+      </c>
+      <c r="L968">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M968">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="N968">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="O968">
+        <v>7.6</v>
+      </c>
+      <c r="P968">
+        <v>0.12</v>
+      </c>
+      <c r="Q968">
+        <v>3.7</v>
+      </c>
+      <c r="R968">
+        <v>2.8</v>
+      </c>
+      <c r="S968">
+        <v>0</v>
+      </c>
+      <c r="T968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>296</v>
+      </c>
+      <c r="B969" t="s">
+        <v>297</v>
+      </c>
+      <c r="C969">
+        <v>82</v>
+      </c>
+      <c r="D969">
+        <v>39</v>
+      </c>
+      <c r="E969">
+        <v>18</v>
+      </c>
+      <c r="F969">
+        <v>34.9</v>
+      </c>
+      <c r="G969">
+        <v>25.6</v>
+      </c>
+      <c r="H969">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I969">
+        <v>5.9</v>
+      </c>
+      <c r="J969">
+        <v>1.2</v>
+      </c>
+      <c r="K969">
+        <v>0.4</v>
+      </c>
+      <c r="L969">
+        <v>0.434</v>
+      </c>
+      <c r="M969">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="N969">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="O969">
+        <v>7.4</v>
+      </c>
+      <c r="P969">
+        <v>0.123</v>
+      </c>
+      <c r="Q969">
+        <v>3.9</v>
+      </c>
+      <c r="R969">
+        <v>3.3</v>
+      </c>
+      <c r="S969">
+        <v>1</v>
+      </c>
+      <c r="T969">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="970" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>257</v>
+      </c>
+      <c r="B970" t="s">
+        <v>57</v>
+      </c>
+      <c r="C970">
+        <v>75</v>
+      </c>
+      <c r="D970">
+        <v>41</v>
+      </c>
+      <c r="E970">
+        <v>16</v>
+      </c>
+      <c r="F970">
+        <v>35</v>
+      </c>
+      <c r="G970">
+        <v>24.5</v>
+      </c>
+      <c r="H970">
+        <v>7.5</v>
+      </c>
+      <c r="I970">
+        <v>5.4</v>
+      </c>
+      <c r="J970">
+        <v>0.7</v>
+      </c>
+      <c r="K970">
+        <v>0.4</v>
+      </c>
+      <c r="L970">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="M970">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="N970">
+        <v>0.753</v>
+      </c>
+      <c r="O970">
+        <v>8</v>
+      </c>
+      <c r="P970">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="Q970">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R970">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S970">
+        <v>1</v>
+      </c>
+      <c r="T970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>302</v>
+      </c>
+      <c r="B971" t="s">
+        <v>167</v>
+      </c>
+      <c r="C971">
+        <v>77</v>
+      </c>
+      <c r="D971">
+        <v>36</v>
+      </c>
+      <c r="E971">
+        <v>21</v>
+      </c>
+      <c r="F971">
+        <v>33.1</v>
+      </c>
+      <c r="G971">
+        <v>24.4</v>
+      </c>
+      <c r="H971">
+        <v>12.4</v>
+      </c>
+      <c r="I971">
+        <v>3.4</v>
+      </c>
+      <c r="J971">
+        <v>0.9</v>
+      </c>
+      <c r="K971">
+        <v>1.6</v>
+      </c>
+      <c r="L971">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="M971">
+        <v>0.4</v>
+      </c>
+      <c r="N971">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="O971">
+        <v>10.4</v>
+      </c>
+      <c r="P971">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="Q971">
+        <v>5.7</v>
+      </c>
+      <c r="R971">
+        <v>6.8</v>
+      </c>
+      <c r="S971">
+        <v>0</v>
+      </c>
+      <c r="T971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>268</v>
+      </c>
+      <c r="B972" t="s">
+        <v>22</v>
+      </c>
+      <c r="C972">
+        <v>67</v>
+      </c>
+      <c r="D972">
+        <v>49</v>
+      </c>
+      <c r="E972">
+        <v>10</v>
+      </c>
+      <c r="F972">
+        <v>33</v>
+      </c>
+      <c r="G972">
+        <v>23.8</v>
+      </c>
+      <c r="H972">
+        <v>5</v>
+      </c>
+      <c r="I972">
+        <v>6.9</v>
+      </c>
+      <c r="J972">
+        <v>1.5</v>
+      </c>
+      <c r="K972">
+        <v>0.5</v>
+      </c>
+      <c r="L972">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="M972">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="N972">
+        <v>0.873</v>
+      </c>
+      <c r="O972">
+        <v>9.1</v>
+      </c>
+      <c r="P972">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="Q972">
+        <v>4.7</v>
+      </c>
+      <c r="R972">
+        <v>6.4</v>
+      </c>
+      <c r="S972">
+        <v>1</v>
+      </c>
+      <c r="T972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>258</v>
+      </c>
+      <c r="B973" t="s">
+        <v>253</v>
+      </c>
+      <c r="C973">
+        <v>73</v>
+      </c>
+      <c r="D973">
+        <v>49</v>
+      </c>
+      <c r="E973">
+        <v>9</v>
+      </c>
+      <c r="F973">
+        <v>36</v>
+      </c>
+      <c r="G973">
+        <v>22.9</v>
+      </c>
+      <c r="H973">
+        <v>11.1</v>
+      </c>
+      <c r="I973">
+        <v>10.7</v>
+      </c>
+      <c r="J973">
+        <v>1.9</v>
+      </c>
+      <c r="K973">
+        <v>0.5</v>
+      </c>
+      <c r="L973">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="M973">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N973">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="O973">
+        <v>6.8</v>
+      </c>
+      <c r="P973">
+        <v>0.124</v>
+      </c>
+      <c r="Q973">
+        <v>5.6</v>
+      </c>
+      <c r="R973">
+        <v>6.5</v>
+      </c>
+      <c r="S973">
+        <v>1</v>
+      </c>
+      <c r="T973">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>283</v>
+      </c>
+      <c r="B974" t="s">
+        <v>66</v>
+      </c>
+      <c r="C974">
+        <v>78</v>
+      </c>
+      <c r="D974">
+        <v>57</v>
+      </c>
+      <c r="E974">
+        <v>3</v>
+      </c>
+      <c r="F974">
+        <v>34</v>
+      </c>
+      <c r="G974">
+        <v>21.5</v>
+      </c>
+      <c r="H974">
+        <v>3.8</v>
+      </c>
+      <c r="I974">
+        <v>2.4</v>
+      </c>
+      <c r="J974">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K974">
+        <v>0.6</v>
+      </c>
+      <c r="L974">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="M974">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="N974">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="O974">
+        <v>5.3</v>
+      </c>
+      <c r="P974">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Q974">
+        <v>0.8</v>
+      </c>
+      <c r="R974">
+        <v>-0.8</v>
+      </c>
+      <c r="S974">
+        <v>0</v>
+      </c>
+      <c r="T974">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>260</v>
+      </c>
+      <c r="B975" t="s">
+        <v>10</v>
+      </c>
+      <c r="C975">
+        <v>81</v>
+      </c>
+      <c r="D975">
+        <v>48</v>
+      </c>
+      <c r="E975">
+        <v>11</v>
+      </c>
+      <c r="F975">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G975">
+        <v>21.3</v>
+      </c>
+      <c r="H975">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I975">
+        <v>2.4</v>
+      </c>
+      <c r="J975">
+        <v>0.5</v>
+      </c>
+      <c r="K975">
+        <v>1.3</v>
+      </c>
+      <c r="L975">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="M975">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="N975">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="O975">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P975">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="Q975">
+        <v>2.5</v>
+      </c>
+      <c r="R975">
+        <v>1.6</v>
+      </c>
+      <c r="S975">
+        <v>0</v>
+      </c>
+      <c r="T975">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="976" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>314</v>
+      </c>
+      <c r="B976" t="s">
+        <v>273</v>
+      </c>
+      <c r="C976">
+        <v>81</v>
+      </c>
+      <c r="D976">
+        <v>42</v>
+      </c>
+      <c r="E976">
+        <v>14</v>
+      </c>
+      <c r="F976">
+        <v>30.2</v>
+      </c>
+      <c r="G976">
+        <v>21.1</v>
+      </c>
+      <c r="H976">
+        <v>3.9</v>
+      </c>
+      <c r="I976">
+        <v>7</v>
+      </c>
+      <c r="J976">
+        <v>1.2</v>
+      </c>
+      <c r="K976">
+        <v>0.2</v>
+      </c>
+      <c r="L976">
+        <v>0.434</v>
+      </c>
+      <c r="M976">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="N976">
+        <v>0.78</v>
+      </c>
+      <c r="O976">
+        <v>5</v>
+      </c>
+      <c r="P976">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q976">
+        <v>3.3</v>
+      </c>
+      <c r="R976">
+        <v>3.4</v>
+      </c>
+      <c r="S976">
+        <v>0</v>
+      </c>
+      <c r="T976">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>315</v>
+      </c>
+      <c r="B977" t="s">
+        <v>136</v>
+      </c>
+      <c r="C977">
+        <v>80</v>
+      </c>
+      <c r="D977">
+        <v>42</v>
+      </c>
+      <c r="E977">
+        <v>15</v>
+      </c>
+      <c r="F977">
+        <v>31.4</v>
+      </c>
+      <c r="G977">
+        <v>20.8</v>
+      </c>
+      <c r="H977">
+        <v>12</v>
+      </c>
+      <c r="I977">
+        <v>3.8</v>
+      </c>
+      <c r="J977">
+        <v>1</v>
+      </c>
+      <c r="K977">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L977">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="M977">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="N977">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="O977">
+        <v>10.1</v>
+      </c>
+      <c r="P977">
+        <v>0.193</v>
+      </c>
+      <c r="Q977">
+        <v>5.3</v>
+      </c>
+      <c r="R977">
+        <v>6.4</v>
+      </c>
+      <c r="S977">
+        <v>0</v>
+      </c>
+      <c r="T977">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="978" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>316</v>
+      </c>
+      <c r="B978" t="s">
+        <v>68</v>
+      </c>
+      <c r="C978">
+        <v>80</v>
+      </c>
+      <c r="D978">
+        <v>54</v>
+      </c>
+      <c r="E978">
+        <v>4</v>
+      </c>
+      <c r="F978">
+        <v>31.3</v>
+      </c>
+      <c r="G978">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H978">
+        <v>10.8</v>
+      </c>
+      <c r="I978">
+        <v>7.3</v>
+      </c>
+      <c r="J978">
+        <v>1.4</v>
+      </c>
+      <c r="K978">
+        <v>0.7</v>
+      </c>
+      <c r="L978">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="M978">
+        <v>0.307</v>
+      </c>
+      <c r="N978">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="O978">
+        <v>11.8</v>
+      </c>
+      <c r="P978">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="Q978">
+        <v>7.3</v>
+      </c>
+      <c r="R978">
+        <v>9.5</v>
+      </c>
+      <c r="S978">
+        <v>1</v>
+      </c>
+      <c r="T978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>300</v>
+      </c>
+      <c r="B979" t="s">
+        <v>116</v>
+      </c>
+      <c r="C979">
+        <v>36</v>
+      </c>
+      <c r="D979">
+        <v>48</v>
+      </c>
+      <c r="E979">
+        <v>13</v>
+      </c>
+      <c r="F979">
+        <v>31.9</v>
+      </c>
+      <c r="G979">
+        <v>18.8</v>
+      </c>
+      <c r="H979">
+        <v>5.6</v>
+      </c>
+      <c r="I979">
+        <v>5.2</v>
+      </c>
+      <c r="J979">
+        <v>1.7</v>
+      </c>
+      <c r="K979">
+        <v>0.3</v>
+      </c>
+      <c r="L979">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="M979">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="N979">
+        <v>0.73</v>
+      </c>
+      <c r="O979">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P979">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q979">
+        <v>1.3</v>
+      </c>
+      <c r="R979">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S979">
+        <v>0</v>
+      </c>
+      <c r="T979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>317</v>
+      </c>
+      <c r="B980" t="s">
+        <v>28</v>
+      </c>
+      <c r="C980">
+        <v>77</v>
+      </c>
+      <c r="D980">
+        <v>60</v>
+      </c>
+      <c r="E980">
+        <v>1</v>
+      </c>
+      <c r="F980">
+        <v>31.1</v>
+      </c>
+      <c r="G980">
+        <v>18.3</v>
+      </c>
+      <c r="H980">
+        <v>6</v>
+      </c>
+      <c r="I980">
+        <v>4.3</v>
+      </c>
+      <c r="J980">
+        <v>1</v>
+      </c>
+      <c r="K980">
+        <v>0.1</v>
+      </c>
+      <c r="L980">
+        <v>0.441</v>
+      </c>
+      <c r="M980">
+        <v>0.378</v>
+      </c>
+      <c r="N980">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="O980">
+        <v>6.1</v>
+      </c>
+      <c r="P980">
+        <v>0.123</v>
+      </c>
+      <c r="Q980">
+        <v>1.7</v>
+      </c>
+      <c r="R980">
+        <v>0.8</v>
+      </c>
+      <c r="S980">
+        <v>0</v>
+      </c>
+      <c r="T980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>318</v>
+      </c>
+      <c r="B981" t="s">
+        <v>16</v>
+      </c>
+      <c r="C981">
+        <v>79</v>
+      </c>
+      <c r="D981">
+        <v>51</v>
+      </c>
+      <c r="E981">
+        <v>7</v>
+      </c>
+      <c r="F981">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G981">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H981">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I981">
+        <v>7.7</v>
+      </c>
+      <c r="J981">
+        <v>1.4</v>
+      </c>
+      <c r="K981">
+        <v>0.8</v>
+      </c>
+      <c r="L981">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="M981">
+        <v>0</v>
+      </c>
+      <c r="N981">
+        <v>0.6</v>
+      </c>
+      <c r="O981">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P981">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="Q981">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R981">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S981">
+        <v>0</v>
+      </c>
+      <c r="T981">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>285</v>
+      </c>
+      <c r="B982" t="s">
+        <v>185</v>
+      </c>
+      <c r="C982">
+        <v>65</v>
+      </c>
+      <c r="D982">
+        <v>58</v>
+      </c>
+      <c r="E982">
+        <v>2</v>
+      </c>
+      <c r="F982">
+        <v>34</v>
+      </c>
+      <c r="G982">
+        <v>14.2</v>
+      </c>
+      <c r="H982">
+        <v>4.8</v>
+      </c>
+      <c r="I982">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J982">
+        <v>1.4</v>
+      </c>
+      <c r="K982">
+        <v>0.5</v>
+      </c>
+      <c r="L982">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="M982">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="N982">
+        <v>0.83</v>
+      </c>
+      <c r="O982">
+        <v>6.6</v>
+      </c>
+      <c r="P982">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="Q982">
+        <v>2.8</v>
+      </c>
+      <c r="R982">
+        <v>3.1</v>
+      </c>
+      <c r="S982">
+        <v>0</v>
+      </c>
+      <c r="T982">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>298</v>
+      </c>
+      <c r="B983" t="s">
+        <v>30</v>
+      </c>
+      <c r="C983">
+        <v>81</v>
+      </c>
+      <c r="D983">
+        <v>50</v>
+      </c>
+      <c r="E983">
+        <v>8</v>
+      </c>
+      <c r="F983">
+        <v>31.8</v>
+      </c>
+      <c r="G983">
+        <v>15.9</v>
+      </c>
+      <c r="H983">
+        <v>12.9</v>
+      </c>
+      <c r="I983">
+        <v>2</v>
+      </c>
+      <c r="J983">
+        <v>0.8</v>
+      </c>
+      <c r="K983">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L983">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="M983">
+        <v>0</v>
+      </c>
+      <c r="N983">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="O983">
+        <v>14.4</v>
+      </c>
+      <c r="P983">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="Q983">
+        <v>3.1</v>
+      </c>
+      <c r="R983">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S983">
+        <v>1</v>
+      </c>
+      <c r="T983">
         <v>0</v>
       </c>
     </row>
